--- a/io/sample.xlsx
+++ b/io/sample.xlsx
@@ -366,7 +366,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="n">
-        <v>43157.42183592333</v>
+        <v>43178.64578646914</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
